--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1BDA555F-554E-40BE-A93E-78718C10A5A8}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D8E025-0A20-4D15-8400-1AB9DC2D6BF0}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{215A0AE0-809D-4F45-8DE5-EE6BBFD5C322}"/>
   </bookViews>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
   <si>
     <t>data</t>
   </si>
@@ -851,6 +851,9 @@
   </si>
   <si>
     <t>Média Todas Refinarias (exceto Manaus)</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -911,7 +914,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -919,14 +922,17 @@
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2182,7 +2188,7 @@
   <dimension ref="A1:S1327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2195,144 +2201,296 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="P1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="4" t="s">
+      <c r="Q1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="S1" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="3"/>
-      <c r="P2" s="3"/>
-      <c r="Q2" s="3"/>
-      <c r="R2" s="3"/>
-      <c r="S2" s="1"/>
+      <c r="A2" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B2" s="5">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C2" s="5">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D2" s="5">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E2" s="5">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I2" s="5">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J2" s="5">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5">
+        <v>3.1393</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="5">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="5">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R2" s="5">
+        <v>3.1474681500797379</v>
+      </c>
+      <c r="S2" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
+      <c r="A3" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B3" s="6">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E3" s="6">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="6">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I3" s="6">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J3" s="6">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="6">
+        <v>3.1393</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N3" s="6">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" s="6">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R3" s="6">
+        <v>3.0948472605881743</v>
+      </c>
+      <c r="S3" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
+      <c r="A4" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B4" s="6">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E4" s="6">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="6">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I4" s="6">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J4" s="6">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="6">
+        <v>3.1393</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N4" s="6">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="6">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R4" s="6">
+        <v>3.0563676906275914</v>
+      </c>
+      <c r="S4" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="A5" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B5" s="6">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D5" s="6">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="6">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I5" s="6">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="6">
+        <v>3.1393</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5" s="6">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P5" s="6">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R5" s="6">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S5" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>

--- a/historico.xlsx
+++ b/historico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://mrncombr-my.sharepoint.com/personal/marcos_silva_pj_mrn_com_br/Documents/Documentos/GitHub/oleo_combustivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{53D8E025-0A20-4D15-8400-1AB9DC2D6BF0}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="8_{E208FA58-8AD0-4040-B3D7-42A28A67AABA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DD4416C3-CB2F-4601-9BAE-C59ECF30ACD5}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{215A0AE0-809D-4F45-8DE5-EE6BBFD5C322}"/>
   </bookViews>
@@ -794,7 +794,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="20">
   <si>
     <t>data</t>
   </si>
@@ -2188,7 +2188,7 @@
   <dimension ref="A1:S1327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2493,46 +2493,122 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
+      <c r="A6" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B6" s="6">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D6" s="6">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E6" s="6">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="6">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I6" s="6">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J6" s="6">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L6" s="6">
+        <v>3.1393</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N6" s="6">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P6" s="6">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R6" s="6">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S6" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
+      <c r="A7" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B7" s="6">
+        <v>3.1059999999999999</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.1070000000000002</v>
+      </c>
+      <c r="D7" s="6">
+        <v>2.7970836734693876</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.2653000000000003</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="6">
+        <v>3.0791999999999997</v>
+      </c>
+      <c r="I7" s="6">
+        <v>3.1278000000000001</v>
+      </c>
+      <c r="J7" s="6">
+        <v>3.0471999999999997</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3.1393</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="6">
+        <v>3.1221000000000001</v>
+      </c>
+      <c r="O7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P7" s="6">
+        <v>3.0510999999999999</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>3.0235000000000003</v>
+      </c>
+      <c r="R7" s="6">
+        <v>3.124185080116558</v>
+      </c>
+      <c r="S7" s="6">
+        <v>3.0818383673469389</v>
+      </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
